--- a/Structural Modeling/Project CRC.xlsx
+++ b/Structural Modeling/Project CRC.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>add/delete user to project</t>
-  </si>
-  <si>
     <t>view tasks</t>
   </si>
   <si>
@@ -63,15 +60,61 @@
   </si>
   <si>
     <t>class name: project</t>
+  </si>
+  <si>
+    <t>add/delete member to project</t>
+  </si>
+  <si>
+    <t>view members daily status</t>
+  </si>
+  <si>
+    <t>add/delete sprint</t>
+  </si>
+  <si>
+    <t>edit members rates</t>
+  </si>
+  <si>
+    <t>show daily answers</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>show tasks statuses</t>
+  </si>
+  <si>
+    <t>show project progress</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>show sprint list</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>show question list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,8 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,92 +424,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="1" max="16384" width="46.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Structural Modeling/Project CRC.xlsx
+++ b/Structural Modeling/Project CRC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>user</t>
   </si>
@@ -99,6 +99,60 @@
   </si>
   <si>
     <t>show question list</t>
+  </si>
+  <si>
+    <t>//////////////////////////////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>text(32)</t>
+  </si>
+  <si>
+    <t>list&lt;text(32)&gt;</t>
+  </si>
+  <si>
+    <t>project_owners_usernames</t>
+  </si>
+  <si>
+    <t>project_roles_users</t>
+  </si>
+  <si>
+    <t>list&lt;pair(user , role)&gt;</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>project_creation_date</t>
+  </si>
+  <si>
+    <t>highest_owner_username</t>
+  </si>
+  <si>
+    <t>project_tasks</t>
+  </si>
+  <si>
+    <t>list&lt;task&gt;</t>
+  </si>
+  <si>
+    <t>project_sprints</t>
+  </si>
+  <si>
+    <t>list&lt;sprint&gt;</t>
   </si>
 </sst>
 </file>
@@ -424,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -571,6 +625,85 @@
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Structural Modeling/Project CRC.xlsx
+++ b/Structural Modeling/Project CRC.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="project" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>user</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>list&lt;sprint&gt;</t>
+  </si>
+  <si>
+    <t>progress_percent</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -704,6 +713,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Structural Modeling/Project CRC.xlsx
+++ b/Structural Modeling/Project CRC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>user</t>
   </si>
@@ -162,6 +162,21 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>last_update</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>assosiation/aggregation</t>
   </si>
 </sst>
 </file>
@@ -487,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -729,6 +744,54 @@
         <v>29</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Structural Modeling/Project CRC.xlsx
+++ b/Structural Modeling/Project CRC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>user</t>
   </si>
@@ -74,9 +74,6 @@
     <t>edit members rates</t>
   </si>
   <si>
-    <t>show daily answers</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -177,6 +174,12 @@
   </si>
   <si>
     <t>assosiation/aggregation</t>
+  </si>
+  <si>
+    <t>show tasks with same tags</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -611,7 +614,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -622,31 +625,36 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -663,18 +671,21 @@
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -685,12 +696,12 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
@@ -701,7 +712,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -709,31 +720,31 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -741,23 +752,23 @@
         <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -765,15 +776,15 @@
         <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -781,7 +792,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -789,7 +800,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
